--- a/biology/Écologie/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(B)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(B).xlsx
+++ b/biology/Écologie/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(B)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(B).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(B)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 à compléter par ordre alphabétique
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(B)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ber
-Bergerocactus - fam. Cactacées (Cactus)
+          <t>Ber</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bergerocactus - fam. Cactacées (Cactus)
 Bergerocactus emoryi
 </t>
         </is>
@@ -527,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(B)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blo
-Blossfeldia - fam. Cactacées (Cactus)
+          <t>Blo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blossfeldia - fam. Cactacées (Cactus)
 Blossfeldia liliputana
 </t>
         </is>
@@ -560,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(B)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,8 +602,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bra
-Brachycereus - fam. Cactacées
+          <t>Bra</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Brachycereus - fam. Cactacées
 Brachycereus nesioticus
 Brasilicereus - fam. Cactacées
 Brasilicereus markgrafii
@@ -590,9 +617,43 @@
 Brassavola - fam. Orchidaceae
 Brassavola flagellaris
 Brassavola nodosa
-Brassavola perrinii
-Bro
-Browningia - fam. Cactacées (Cactus)
+Brassavola perrinii</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(B)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Br</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bro</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Browningia - fam. Cactacées (Cactus)
 Browningia caineana
 Browningia candelaris
 Browningia chlorocarpa
